--- a/state_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
+++ b/state_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.67</v>
       </c>
       <c r="G2" t="n">
-        <v>0.901803679403423</v>
+        <v>0.901629905446259</v>
       </c>
       <c r="H2" t="n">
         <v>3.744</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0112749983002713</v>
+        <v>0.0112909228646999</v>
       </c>
       <c r="H3" t="n">
         <v>0.056</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0112749983002713</v>
+        <v>0.0112909228646999</v>
       </c>
       <c r="H4" t="n">
         <v>0.056</v>
@@ -813,10 +813,10 @@
         <v>131</v>
       </c>
       <c r="G5" t="n">
-        <v>762.025421470958</v>
+        <v>662.763931940274</v>
       </c>
       <c r="H5" t="n">
-        <v>12588.3727594317</v>
+        <v>7228.25232477481</v>
       </c>
       <c r="I5" t="n">
         <v>3443.2</v>
@@ -898,10 +898,10 @@
         <v>131</v>
       </c>
       <c r="G6" t="n">
-        <v>762.025421470958</v>
+        <v>662.763931940274</v>
       </c>
       <c r="H6" t="n">
-        <v>12588.3727594317</v>
+        <v>7228.25232477481</v>
       </c>
       <c r="I6" t="n">
         <v>3443.2</v>
@@ -983,10 +983,10 @@
         <v>131</v>
       </c>
       <c r="G7" t="n">
-        <v>762.025421470958</v>
+        <v>662.763931940274</v>
       </c>
       <c r="H7" t="n">
-        <v>12588.3727594317</v>
+        <v>7228.25232477481</v>
       </c>
       <c r="I7" t="n">
         <v>3443.2</v>
@@ -1068,10 +1068,10 @@
         <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>762.025421470958</v>
+        <v>662.763931940274</v>
       </c>
       <c r="H8" t="n">
-        <v>12588.3727594317</v>
+        <v>7228.25232477481</v>
       </c>
       <c r="I8" t="n">
         <v>3443.2</v>
@@ -1153,7 +1153,7 @@
         <v>0.00318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0132591641893117</v>
+        <v>0.0132650186665857</v>
       </c>
       <c r="H9" t="n">
         <v>0.140343935305867</v>
@@ -1167,7 +1167,7 @@
         <v>0.00291</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01449</v>
+        <v>0.01453</v>
       </c>
       <c r="N9" t="n">
         <v>0.05229</v>
@@ -1234,7 +1234,7 @@
         <v>0.00318</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0132591641893117</v>
+        <v>0.0132650186665857</v>
       </c>
       <c r="H10" t="n">
         <v>0.140343935305867</v>
@@ -1248,7 +1248,7 @@
         <v>0.00291</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01449</v>
+        <v>0.01453</v>
       </c>
       <c r="N10" t="n">
         <v>0.05229</v>
@@ -1315,7 +1315,7 @@
         <v>0.1905</v>
       </c>
       <c r="G11" t="n">
-        <v>0.194716440170361</v>
+        <v>0.19479116816265</v>
       </c>
       <c r="H11" t="n">
         <v>0.5610000000000001</v>
@@ -1396,7 +1396,7 @@
         <v>0.1905</v>
       </c>
       <c r="G12" t="n">
-        <v>0.194716440170361</v>
+        <v>0.19479116816265</v>
       </c>
       <c r="H12" t="n">
         <v>0.5610000000000001</v>
@@ -1473,13 +1473,13 @@
         <v>0.177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.193276942685812</v>
+        <v>0.193220560930438</v>
       </c>
       <c r="H13" t="n">
         <v>0.571</v>
       </c>
       <c r="I13" t="n">
-        <v>0.512</v>
+        <v>0.51176</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
         <v>0.025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3526</v>
+        <v>0.3521</v>
       </c>
       <c r="N13" t="n">
         <v>0.48524</v>
@@ -1550,13 +1550,13 @@
         <v>0.177</v>
       </c>
       <c r="G14" t="n">
-        <v>0.193276942685812</v>
+        <v>0.193220560930438</v>
       </c>
       <c r="H14" t="n">
         <v>0.571</v>
       </c>
       <c r="I14" t="n">
-        <v>0.512</v>
+        <v>0.51176</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1564,7 +1564,7 @@
         <v>0.025</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3526</v>
+        <v>0.3521</v>
       </c>
       <c r="N14" t="n">
         <v>0.48524</v>
@@ -1631,7 +1631,7 @@
         <v>0.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.905462698204504</v>
+        <v>0.911431824445774</v>
       </c>
       <c r="H15" t="n">
         <v>3.744</v>
@@ -1648,7 +1648,7 @@
         <v>1.7</v>
       </c>
       <c r="N15" t="n">
-        <v>2.16931</v>
+        <v>2.39105</v>
       </c>
       <c r="O15" t="n">
         <v>1785162</v>
@@ -1712,7 +1712,7 @@
         <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008251761926165901</v>
+        <v>0.0082728333828715</v>
       </c>
       <c r="H16" t="n">
         <v>0.032</v>
@@ -1723,7 +1723,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.00335</v>
+        <v>0.00342</v>
       </c>
       <c r="M16" t="n">
         <v>0.013</v>
@@ -1793,7 +1793,7 @@
         <v>0.008</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008251761926165901</v>
+        <v>0.0082728333828715</v>
       </c>
       <c r="H17" t="n">
         <v>0.032</v>
@@ -1804,7 +1804,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00335</v>
+        <v>0.00342</v>
       </c>
       <c r="M17" t="n">
         <v>0.013</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0112412224047248</v>
+        <v>0.011249658448738</v>
       </c>
       <c r="H22" t="n">
         <v>0.127961816086435</v>
@@ -2225,10 +2225,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00176</v>
+        <v>0.00178</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01509</v>
+        <v>0.01513</v>
       </c>
       <c r="N22" t="n">
         <v>0.0329</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0112412224047248</v>
+        <v>0.011249658448738</v>
       </c>
       <c r="H23" t="n">
         <v>0.127961816086435</v>
@@ -2306,10 +2306,10 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00176</v>
+        <v>0.00178</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01509</v>
+        <v>0.01513</v>
       </c>
       <c r="N23" t="n">
         <v>0.0329</v>
@@ -2376,7 +2376,7 @@
         <v>0.2035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.206805497728941</v>
+        <v>0.206839967293023</v>
       </c>
       <c r="H24" t="n">
         <v>0.5610000000000001</v>
@@ -2457,7 +2457,7 @@
         <v>0.2035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.206805497728941</v>
+        <v>0.206839967293023</v>
       </c>
       <c r="H25" t="n">
         <v>0.5610000000000001</v>
@@ -2534,18 +2534,18 @@
         <v>0.177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.197221808730659</v>
+        <v>0.197153827939321</v>
       </c>
       <c r="H26" t="n">
         <v>0.571</v>
       </c>
       <c r="I26" t="n">
-        <v>0.512</v>
+        <v>0.51176</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.01735</v>
+        <v>0.01662</v>
       </c>
       <c r="M26" t="n">
         <v>0.39296</v>
@@ -2611,18 +2611,18 @@
         <v>0.177</v>
       </c>
       <c r="G27" t="n">
-        <v>0.197221808730659</v>
+        <v>0.197153827939321</v>
       </c>
       <c r="H27" t="n">
         <v>0.571</v>
       </c>
       <c r="I27" t="n">
-        <v>0.512</v>
+        <v>0.51176</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.01735</v>
+        <v>0.01662</v>
       </c>
       <c r="M27" t="n">
         <v>0.39296</v>
@@ -3000,7 +3000,7 @@
         <v>0.65</v>
       </c>
       <c r="G32" t="n">
-        <v>0.912813767925852</v>
+        <v>0.9182638397113591</v>
       </c>
       <c r="H32" t="n">
         <v>3.744</v>
@@ -3017,7 +3017,7 @@
         <v>1.7</v>
       </c>
       <c r="N32" t="n">
-        <v>2.0623</v>
+        <v>2.27371</v>
       </c>
       <c r="O32" t="n">
         <v>1785162</v>
@@ -3081,7 +3081,7 @@
         <v>0.007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0069543345690668</v>
+        <v>0.0069761554324737</v>
       </c>
       <c r="H33" t="n">
         <v>0.022</v>
@@ -3092,7 +3092,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.00346</v>
+        <v>0.00352</v>
       </c>
       <c r="M33" t="n">
         <v>0.009979999999999999</v>
@@ -3162,7 +3162,7 @@
         <v>0.007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0069543345690668</v>
+        <v>0.0069761554324737</v>
       </c>
       <c r="H34" t="n">
         <v>0.022</v>
@@ -3173,7 +3173,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.00346</v>
+        <v>0.00352</v>
       </c>
       <c r="M34" t="n">
         <v>0.009979999999999999</v>
@@ -3583,7 +3583,7 @@
         <v>0.00647</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0121081286519316</v>
+        <v>0.0121149550616691</v>
       </c>
       <c r="H39" t="n">
         <v>0.127961816086435</v>
@@ -3664,7 +3664,7 @@
         <v>0.00647</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0121081286519316</v>
+        <v>0.0121149550616691</v>
       </c>
       <c r="H40" t="n">
         <v>0.127961816086435</v>
@@ -3745,7 +3745,7 @@
         <v>0.1905</v>
       </c>
       <c r="G41" t="n">
-        <v>0.191915222842494</v>
+        <v>0.191947968928372</v>
       </c>
       <c r="H41" t="n">
         <v>0.609</v>
@@ -3826,7 +3826,7 @@
         <v>0.1905</v>
       </c>
       <c r="G42" t="n">
-        <v>0.191915222842494</v>
+        <v>0.191947968928372</v>
       </c>
       <c r="H42" t="n">
         <v>0.609</v>
@@ -3903,24 +3903,24 @@
         <v>0.123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.187821029847421</v>
+        <v>0.187737619798631</v>
       </c>
       <c r="H43" t="n">
         <v>0.63</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5395</v>
+        <v>0.5394099999999999</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.01968</v>
+        <v>0.01931</v>
       </c>
       <c r="M43" t="n">
-        <v>0.37298</v>
+        <v>0.37249</v>
       </c>
       <c r="N43" t="n">
-        <v>0.48266</v>
+        <v>0.48265</v>
       </c>
       <c r="O43" t="n">
         <v>1785162</v>
@@ -3980,24 +3980,24 @@
         <v>0.123</v>
       </c>
       <c r="G44" t="n">
-        <v>0.187821029847421</v>
+        <v>0.187737619798631</v>
       </c>
       <c r="H44" t="n">
         <v>0.63</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5395</v>
+        <v>0.5394099999999999</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.01968</v>
+        <v>0.01931</v>
       </c>
       <c r="M44" t="n">
-        <v>0.37298</v>
+        <v>0.37249</v>
       </c>
       <c r="N44" t="n">
-        <v>0.48266</v>
+        <v>0.48265</v>
       </c>
       <c r="O44" t="n">
         <v>1785162</v>
@@ -4369,13 +4369,13 @@
         <v>0.5</v>
       </c>
       <c r="G49" t="n">
-        <v>0.781293097153235</v>
+        <v>0.786898054422302</v>
       </c>
       <c r="H49" t="n">
         <v>3.744</v>
       </c>
       <c r="I49" t="n">
-        <v>2.19239</v>
+        <v>2.39865</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -4450,7 +4450,7 @@
         <v>0.007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0076590578341345</v>
+        <v>0.0076745495243724</v>
       </c>
       <c r="H50" t="n">
         <v>0.022</v>
@@ -4531,7 +4531,7 @@
         <v>0.007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0076590578341345</v>
+        <v>0.0076745495243724</v>
       </c>
       <c r="H51" t="n">
         <v>0.022</v>
@@ -4952,7 +4952,7 @@
         <v>0.00511</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0085634436266269</v>
+        <v>0.0085685872631959</v>
       </c>
       <c r="H56" t="n">
         <v>0.0924598684203618</v>
@@ -5033,7 +5033,7 @@
         <v>0.00511</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0085634436266269</v>
+        <v>0.0085685872631959</v>
       </c>
       <c r="H57" t="n">
         <v>0.0924598684203618</v>
@@ -5114,7 +5114,7 @@
         <v>0.144</v>
       </c>
       <c r="G58" t="n">
-        <v>0.192173651299995</v>
+        <v>0.192200382798671</v>
       </c>
       <c r="H58" t="n">
         <v>0.71</v>
@@ -5125,7 +5125,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.01139</v>
+        <v>0.01194</v>
       </c>
       <c r="M58" t="n">
         <v>0.3634</v>
@@ -5195,7 +5195,7 @@
         <v>0.144</v>
       </c>
       <c r="G59" t="n">
-        <v>0.192173651299995</v>
+        <v>0.192200382798671</v>
       </c>
       <c r="H59" t="n">
         <v>0.71</v>
@@ -5206,7 +5206,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.01139</v>
+        <v>0.01194</v>
       </c>
       <c r="M59" t="n">
         <v>0.3634</v>
@@ -5269,27 +5269,27 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.123</v>
+        <v>0.1231</v>
       </c>
       <c r="G60" t="n">
-        <v>0.190582617995635</v>
+        <v>0.190571159864513</v>
       </c>
       <c r="H60" t="n">
         <v>0.746</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5913</v>
+        <v>0.59151</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.0195</v>
+        <v>0.01945</v>
       </c>
       <c r="M60" t="n">
         <v>0.3718</v>
       </c>
       <c r="N60" t="n">
-        <v>0.49456</v>
+        <v>0.49476</v>
       </c>
       <c r="O60" t="n">
         <v>1785162</v>
@@ -5346,27 +5346,27 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.123</v>
+        <v>0.1231</v>
       </c>
       <c r="G61" t="n">
-        <v>0.190582617995635</v>
+        <v>0.190571159864513</v>
       </c>
       <c r="H61" t="n">
         <v>0.746</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5913</v>
+        <v>0.59151</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.0195</v>
+        <v>0.01945</v>
       </c>
       <c r="M61" t="n">
         <v>0.3718</v>
       </c>
       <c r="N61" t="n">
-        <v>0.49456</v>
+        <v>0.49476</v>
       </c>
       <c r="O61" t="n">
         <v>1785162</v>
@@ -5738,13 +5738,13 @@
         <v>0.5</v>
       </c>
       <c r="G66" t="n">
-        <v>0.769173111613241</v>
+        <v>0.774434908233182</v>
       </c>
       <c r="H66" t="n">
         <v>3.744</v>
       </c>
       <c r="I66" t="n">
-        <v>1.86327</v>
+        <v>1.87617</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
         <v>0.008</v>
       </c>
       <c r="G67" t="n">
-        <v>0.008809082256885</v>
+        <v>0.008820931758264001</v>
       </c>
       <c r="H67" t="n">
         <v>0.022</v>
@@ -5900,7 +5900,7 @@
         <v>0.008</v>
       </c>
       <c r="G68" t="n">
-        <v>0.008809082256885</v>
+        <v>0.008820931758264001</v>
       </c>
       <c r="H68" t="n">
         <v>0.022</v>
@@ -6321,7 +6321,7 @@
         <v>0.00484</v>
       </c>
       <c r="G73" t="n">
-        <v>0.008627937123473799</v>
+        <v>0.0086320470063312</v>
       </c>
       <c r="H73" t="n">
         <v>0.0924598684203618</v>
@@ -6402,7 +6402,7 @@
         <v>0.00484</v>
       </c>
       <c r="G74" t="n">
-        <v>0.008627937123473799</v>
+        <v>0.0086320470063312</v>
       </c>
       <c r="H74" t="n">
         <v>0.0924598684203618</v>
@@ -6483,7 +6483,7 @@
         <v>0.144</v>
       </c>
       <c r="G75" t="n">
-        <v>0.191767947689827</v>
+        <v>0.191790148426015</v>
       </c>
       <c r="H75" t="n">
         <v>0.71</v>
@@ -6494,7 +6494,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.008</v>
+        <v>0.00826</v>
       </c>
       <c r="M75" t="n">
         <v>0.36489</v>
@@ -6564,7 +6564,7 @@
         <v>0.144</v>
       </c>
       <c r="G76" t="n">
-        <v>0.191767947689827</v>
+        <v>0.191790148426015</v>
       </c>
       <c r="H76" t="n">
         <v>0.71</v>
@@ -6575,7 +6575,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.008</v>
+        <v>0.00826</v>
       </c>
       <c r="M76" t="n">
         <v>0.36489</v>
@@ -6641,24 +6641,24 @@
         <v>0.179</v>
       </c>
       <c r="G77" t="n">
-        <v>0.206339368922402</v>
+        <v>0.206160956245418</v>
       </c>
       <c r="H77" t="n">
         <v>0.746</v>
       </c>
       <c r="I77" t="n">
-        <v>0.58695</v>
+        <v>0.58711</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.0195</v>
+        <v>0.01945</v>
       </c>
       <c r="M77" t="n">
-        <v>0.37547</v>
+        <v>0.37562</v>
       </c>
       <c r="N77" t="n">
-        <v>0.47892</v>
+        <v>0.47908</v>
       </c>
       <c r="O77" t="n">
         <v>1785162</v>
@@ -6718,24 +6718,24 @@
         <v>0.179</v>
       </c>
       <c r="G78" t="n">
-        <v>0.206339368922402</v>
+        <v>0.206160956245418</v>
       </c>
       <c r="H78" t="n">
         <v>0.746</v>
       </c>
       <c r="I78" t="n">
-        <v>0.58695</v>
+        <v>0.58711</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.0195</v>
+        <v>0.01945</v>
       </c>
       <c r="M78" t="n">
-        <v>0.37547</v>
+        <v>0.37562</v>
       </c>
       <c r="N78" t="n">
-        <v>0.47892</v>
+        <v>0.47908</v>
       </c>
       <c r="O78" t="n">
         <v>1785162</v>
@@ -7107,10 +7107,10 @@
         <v>0.78</v>
       </c>
       <c r="G83" t="n">
-        <v>0.922122753346358</v>
+        <v>0.879309668466592</v>
       </c>
       <c r="H83" t="n">
-        <v>7.13990070496178</v>
+        <v>4.65579225683691</v>
       </c>
       <c r="I83" t="n">
         <v>1.845</v>
@@ -7188,7 +7188,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0326509201996057</v>
+        <v>0.032659940098069</v>
       </c>
       <c r="H84" t="n">
         <v>1.37</v>
@@ -7269,7 +7269,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0326509201996057</v>
+        <v>0.032659940098069</v>
       </c>
       <c r="H85" t="n">
         <v>1.37</v>
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00236</v>
+        <v>0.00239</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0065802630615225</v>
+        <v>0.0065862907387376</v>
       </c>
       <c r="H90" t="n">
         <v>0.0322517329258542</v>
@@ -7701,7 +7701,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00211</v>
+        <v>0.00214</v>
       </c>
       <c r="M90" t="n">
         <v>0.01327</v>
@@ -7768,10 +7768,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00236</v>
+        <v>0.00239</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0065802630615225</v>
+        <v>0.0065862907387376</v>
       </c>
       <c r="H91" t="n">
         <v>0.0322517329258542</v>
@@ -7782,7 +7782,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00211</v>
+        <v>0.00214</v>
       </c>
       <c r="M91" t="n">
         <v>0.01327</v>
@@ -7852,7 +7852,7 @@
         <v>0.16335</v>
       </c>
       <c r="G92" t="n">
-        <v>0.193610456127728</v>
+        <v>0.193638237369497</v>
       </c>
       <c r="H92" t="n">
         <v>0.71</v>
@@ -7863,7 +7863,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>0.00397</v>
+        <v>0.00416</v>
       </c>
       <c r="M92" t="n">
         <v>0.37328</v>
@@ -7933,7 +7933,7 @@
         <v>0.16335</v>
       </c>
       <c r="G93" t="n">
-        <v>0.193610456127728</v>
+        <v>0.193638237369497</v>
       </c>
       <c r="H93" t="n">
         <v>0.71</v>
@@ -7944,7 +7944,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>0.00397</v>
+        <v>0.00416</v>
       </c>
       <c r="M93" t="n">
         <v>0.37328</v>
@@ -8007,27 +8007,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.1755</v>
+        <v>0.17535</v>
       </c>
       <c r="G94" t="n">
-        <v>0.207495318494445</v>
+        <v>0.207313611644081</v>
       </c>
       <c r="H94" t="n">
         <v>0.746</v>
       </c>
       <c r="I94" t="n">
-        <v>0.574</v>
+        <v>0.5742</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.01601</v>
+        <v>0.01565</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3817</v>
+        <v>0.38177</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4906</v>
+        <v>0.49074</v>
       </c>
       <c r="O94" t="n">
         <v>1785162</v>
@@ -8084,27 +8084,27 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.1755</v>
+        <v>0.17535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.207495318494445</v>
+        <v>0.207313611644081</v>
       </c>
       <c r="H95" t="n">
         <v>0.746</v>
       </c>
       <c r="I95" t="n">
-        <v>0.574</v>
+        <v>0.5742</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.01601</v>
+        <v>0.01565</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3817</v>
+        <v>0.38177</v>
       </c>
       <c r="N95" t="n">
-        <v>0.4906</v>
+        <v>0.49074</v>
       </c>
       <c r="O95" t="n">
         <v>1785162</v>
@@ -8476,10 +8476,10 @@
         <v>0.7</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8683313863718</v>
+        <v>0.819623377585037</v>
       </c>
       <c r="H100" t="n">
-        <v>7.13990070496178</v>
+        <v>4.65579225683691</v>
       </c>
       <c r="I100" t="n">
         <v>1.8</v>
@@ -8557,7 +8557,7 @@
         <v>0.0095</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0738218329363005</v>
+        <v>0.0738262206317145</v>
       </c>
       <c r="H101" t="n">
         <v>1.37</v>
@@ -8638,7 +8638,7 @@
         <v>0.0095</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0738218329363005</v>
+        <v>0.0738262206317145</v>
       </c>
       <c r="H102" t="n">
         <v>1.37</v>
@@ -9056,10 +9056,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00156</v>
+        <v>0.0016</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0055165199508249</v>
+        <v>0.0055272843659503</v>
       </c>
       <c r="H107" t="n">
         <v>0.0322517329258542</v>
@@ -9070,7 +9070,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00164</v>
+        <v>0.00168</v>
       </c>
       <c r="M107" t="n">
         <v>0.01155</v>
@@ -9137,10 +9137,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.00156</v>
+        <v>0.0016</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0055165199508249</v>
+        <v>0.0055272843659503</v>
       </c>
       <c r="H108" t="n">
         <v>0.0322517329258542</v>
@@ -9151,7 +9151,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00164</v>
+        <v>0.00168</v>
       </c>
       <c r="M108" t="n">
         <v>0.01155</v>
@@ -9221,7 +9221,7 @@
         <v>0.147</v>
       </c>
       <c r="G109" t="n">
-        <v>0.199136601464064</v>
+        <v>0.199176225528996</v>
       </c>
       <c r="H109" t="n">
         <v>0.71</v>
@@ -9232,7 +9232,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00512</v>
+        <v>0.00552</v>
       </c>
       <c r="M109" t="n">
         <v>0.37337</v>
@@ -9302,7 +9302,7 @@
         <v>0.147</v>
       </c>
       <c r="G110" t="n">
-        <v>0.199136601464064</v>
+        <v>0.199176225528996</v>
       </c>
       <c r="H110" t="n">
         <v>0.71</v>
@@ -9313,7 +9313,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00512</v>
+        <v>0.00552</v>
       </c>
       <c r="M110" t="n">
         <v>0.37337</v>
@@ -9379,13 +9379,13 @@
         <v>0.16</v>
       </c>
       <c r="G111" t="n">
-        <v>0.212017201215154</v>
+        <v>0.21183991644509</v>
       </c>
       <c r="H111" t="n">
         <v>0.746</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5975</v>
+        <v>0.59765</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9393,10 +9393,10 @@
         <v>0.01485</v>
       </c>
       <c r="M111" t="n">
-        <v>0.3886</v>
+        <v>0.38855</v>
       </c>
       <c r="N111" t="n">
-        <v>0.5315</v>
+        <v>0.53163</v>
       </c>
       <c r="O111" t="n">
         <v>1785162</v>
@@ -9456,13 +9456,13 @@
         <v>0.16</v>
       </c>
       <c r="G112" t="n">
-        <v>0.212017201215154</v>
+        <v>0.21183991644509</v>
       </c>
       <c r="H112" t="n">
         <v>0.746</v>
       </c>
       <c r="I112" t="n">
-        <v>0.5975</v>
+        <v>0.59765</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9470,10 +9470,10 @@
         <v>0.01485</v>
       </c>
       <c r="M112" t="n">
-        <v>0.3886</v>
+        <v>0.38855</v>
       </c>
       <c r="N112" t="n">
-        <v>0.5315</v>
+        <v>0.53163</v>
       </c>
       <c r="O112" t="n">
         <v>1785162</v>
@@ -9845,10 +9845,10 @@
         <v>0.76</v>
       </c>
       <c r="G117" t="n">
-        <v>0.890304096019628</v>
+        <v>0.83960800524157</v>
       </c>
       <c r="H117" t="n">
-        <v>7.13990070496178</v>
+        <v>4.65579225683691</v>
       </c>
       <c r="I117" t="n">
         <v>1.8625</v>
@@ -9926,7 +9926,7 @@
         <v>0.0105</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0772694534323471</v>
+        <v>0.077271058354619</v>
       </c>
       <c r="H118" t="n">
         <v>1.37</v>
@@ -10007,7 +10007,7 @@
         <v>0.0105</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0772694534323471</v>
+        <v>0.077271058354619</v>
       </c>
       <c r="H119" t="n">
         <v>1.37</v>
@@ -10428,7 +10428,7 @@
         <v>0.00156</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0042122565701963</v>
+        <v>0.0042293542192498</v>
       </c>
       <c r="H124" t="n">
         <v>0.0322517329258542</v>
@@ -10439,7 +10439,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00164</v>
+        <v>0.00168</v>
       </c>
       <c r="M124" t="n">
         <v>0.00524</v>
@@ -10509,7 +10509,7 @@
         <v>0.00156</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0042122565701963</v>
+        <v>0.0042293542192498</v>
       </c>
       <c r="H125" t="n">
         <v>0.0322517329258542</v>
@@ -10520,7 +10520,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00164</v>
+        <v>0.00168</v>
       </c>
       <c r="M125" t="n">
         <v>0.00524</v>
@@ -10590,7 +10590,7 @@
         <v>0.13</v>
       </c>
       <c r="G126" t="n">
-        <v>0.203382691169722</v>
+        <v>0.20342368158172</v>
       </c>
       <c r="H126" t="n">
         <v>0.71</v>
@@ -10601,7 +10601,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00512</v>
+        <v>0.00552</v>
       </c>
       <c r="M126" t="n">
         <v>0.39956</v>
@@ -10671,7 +10671,7 @@
         <v>0.13</v>
       </c>
       <c r="G127" t="n">
-        <v>0.203382691169722</v>
+        <v>0.20342368158172</v>
       </c>
       <c r="H127" t="n">
         <v>0.71</v>
@@ -10682,7 +10682,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00512</v>
+        <v>0.00552</v>
       </c>
       <c r="M127" t="n">
         <v>0.39956</v>
@@ -10748,7 +10748,7 @@
         <v>0.16</v>
       </c>
       <c r="G128" t="n">
-        <v>0.21679365642947</v>
+        <v>0.216610258391472</v>
       </c>
       <c r="H128" t="n">
         <v>0.746</v>
@@ -10762,10 +10762,10 @@
         <v>0.01485</v>
       </c>
       <c r="M128" t="n">
-        <v>0.42568</v>
+        <v>0.42554</v>
       </c>
       <c r="N128" t="n">
-        <v>0.5403</v>
+        <v>0.5404099999999999</v>
       </c>
       <c r="O128" t="n">
         <v>1785162</v>
@@ -10825,7 +10825,7 @@
         <v>0.16</v>
       </c>
       <c r="G129" t="n">
-        <v>0.21679365642947</v>
+        <v>0.216610258391472</v>
       </c>
       <c r="H129" t="n">
         <v>0.746</v>
@@ -10839,10 +10839,10 @@
         <v>0.01485</v>
       </c>
       <c r="M129" t="n">
-        <v>0.42568</v>
+        <v>0.42554</v>
       </c>
       <c r="N129" t="n">
-        <v>0.5403</v>
+        <v>0.5404099999999999</v>
       </c>
       <c r="O129" t="n">
         <v>1785162</v>
@@ -11214,10 +11214,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>0.842598014099236</v>
+        <v>0.792915845136738</v>
       </c>
       <c r="H134" t="n">
-        <v>7.13990070496178</v>
+        <v>4.65579225683691</v>
       </c>
       <c r="I134" t="n">
         <v>1.85</v>
@@ -11457,7 +11457,7 @@
         <v>70</v>
       </c>
       <c r="G137" t="n">
-        <v>331.406128844647</v>
+        <v>331.404365169939</v>
       </c>
       <c r="H137" t="n">
         <v>3100</v>
@@ -11542,7 +11542,7 @@
         <v>70</v>
       </c>
       <c r="G138" t="n">
-        <v>331.406128844647</v>
+        <v>331.404365169939</v>
       </c>
       <c r="H138" t="n">
         <v>3100</v>
@@ -11627,7 +11627,7 @@
         <v>70</v>
       </c>
       <c r="G139" t="n">
-        <v>331.406128844647</v>
+        <v>331.404365169939</v>
       </c>
       <c r="H139" t="n">
         <v>3100</v>
@@ -11712,7 +11712,7 @@
         <v>70</v>
       </c>
       <c r="G140" t="n">
-        <v>331.406128844647</v>
+        <v>331.404365169939</v>
       </c>
       <c r="H140" t="n">
         <v>3100</v>
@@ -11794,10 +11794,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0047040344921735</v>
+        <v>0.0047273911016493</v>
       </c>
       <c r="H141" t="n">
         <v>0.0330213815787006</v>
@@ -11808,7 +11808,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00258</v>
+        <v>0.00262</v>
       </c>
       <c r="M141" t="n">
         <v>0.00517</v>
@@ -11875,10 +11875,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0047040344921735</v>
+        <v>0.0047273911016493</v>
       </c>
       <c r="H142" t="n">
         <v>0.0330213815787006</v>
@@ -11889,7 +11889,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00258</v>
+        <v>0.00262</v>
       </c>
       <c r="M142" t="n">
         <v>0.00517</v>
@@ -11959,7 +11959,7 @@
         <v>0.16335</v>
       </c>
       <c r="G143" t="n">
-        <v>0.210199572754438</v>
+        <v>0.210249192407504</v>
       </c>
       <c r="H143" t="n">
         <v>0.591</v>
@@ -12040,7 +12040,7 @@
         <v>0.16335</v>
       </c>
       <c r="G144" t="n">
-        <v>0.210199572754438</v>
+        <v>0.210249192407504</v>
       </c>
       <c r="H144" t="n">
         <v>0.591</v>
@@ -12114,16 +12114,16 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1805</v>
+        <v>0.18035</v>
       </c>
       <c r="G145" t="n">
-        <v>0.223638484015677</v>
+        <v>0.223437844598369</v>
       </c>
       <c r="H145" t="n">
         <v>0.595</v>
       </c>
       <c r="I145" t="n">
-        <v>0.5522</v>
+        <v>0.55224</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -12191,16 +12191,16 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1805</v>
+        <v>0.18035</v>
       </c>
       <c r="G146" t="n">
-        <v>0.223638484015677</v>
+        <v>0.223437844598369</v>
       </c>
       <c r="H146" t="n">
         <v>0.595</v>
       </c>
       <c r="I146" t="n">
-        <v>0.5522</v>
+        <v>0.55224</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -12583,10 +12583,10 @@
         <v>0.6</v>
       </c>
       <c r="G151" t="n">
-        <v>0.833053716758552</v>
+        <v>0.787051708459943</v>
       </c>
       <c r="H151" t="n">
-        <v>7.13990070496178</v>
+        <v>4.65579225683691</v>
       </c>
       <c r="I151" t="n">
         <v>1.96</v>
@@ -12826,7 +12826,7 @@
         <v>70</v>
       </c>
       <c r="G154" t="n">
-        <v>360.265777967454</v>
+        <v>360.264014292746</v>
       </c>
       <c r="H154" t="n">
         <v>3100</v>
@@ -12911,7 +12911,7 @@
         <v>70</v>
       </c>
       <c r="G155" t="n">
-        <v>360.265777967454</v>
+        <v>360.264014292746</v>
       </c>
       <c r="H155" t="n">
         <v>3100</v>
@@ -12996,7 +12996,7 @@
         <v>70</v>
       </c>
       <c r="G156" t="n">
-        <v>360.265777967454</v>
+        <v>360.264014292746</v>
       </c>
       <c r="H156" t="n">
         <v>3100</v>
@@ -13081,7 +13081,7 @@
         <v>70</v>
       </c>
       <c r="G157" t="n">
-        <v>360.265777967454</v>
+        <v>360.264014292746</v>
       </c>
       <c r="H157" t="n">
         <v>3100</v>
@@ -13163,21 +13163,21 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.0031</v>
+        <v>0.00317</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0055864146889759</v>
+        <v>0.0056233573582865</v>
       </c>
       <c r="H158" t="n">
         <v>0.0330213815787006</v>
       </c>
       <c r="I158" t="n">
-        <v>0.02397</v>
+        <v>0.02415</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.00421</v>
+        <v>0.00425</v>
       </c>
       <c r="M158" t="n">
         <v>0.008449999999999999</v>
@@ -13244,21 +13244,21 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.0031</v>
+        <v>0.00317</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0055864146889759</v>
+        <v>0.0056233573582865</v>
       </c>
       <c r="H159" t="n">
         <v>0.0330213815787006</v>
       </c>
       <c r="I159" t="n">
-        <v>0.02397</v>
+        <v>0.02415</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00421</v>
+        <v>0.00425</v>
       </c>
       <c r="M159" t="n">
         <v>0.008449999999999999</v>
@@ -13328,7 +13328,7 @@
         <v>0.1395</v>
       </c>
       <c r="G160" t="n">
-        <v>0.206853447685731</v>
+        <v>0.206921251219346</v>
       </c>
       <c r="H160" t="n">
         <v>0.591</v>
@@ -13409,7 +13409,7 @@
         <v>0.1395</v>
       </c>
       <c r="G161" t="n">
-        <v>0.206853447685731</v>
+        <v>0.206921251219346</v>
       </c>
       <c r="H161" t="n">
         <v>0.591</v>
@@ -13486,13 +13486,13 @@
         <v>0.1625</v>
       </c>
       <c r="G162" t="n">
-        <v>0.220132886220102</v>
+        <v>0.220130296946673</v>
       </c>
       <c r="H162" t="n">
         <v>0.595</v>
       </c>
       <c r="I162" t="n">
-        <v>0.5522</v>
+        <v>0.55224</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13563,13 +13563,13 @@
         <v>0.1625</v>
       </c>
       <c r="G163" t="n">
-        <v>0.220132886220102</v>
+        <v>0.220130296946673</v>
       </c>
       <c r="H163" t="n">
         <v>0.595</v>
       </c>
       <c r="I163" t="n">
-        <v>0.5522</v>
+        <v>0.55224</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -14195,7 +14195,7 @@
         <v>100</v>
       </c>
       <c r="G171" t="n">
-        <v>431.721918318331</v>
+        <v>431.720154643623</v>
       </c>
       <c r="H171" t="n">
         <v>3100</v>
@@ -14280,7 +14280,7 @@
         <v>100</v>
       </c>
       <c r="G172" t="n">
-        <v>431.721918318331</v>
+        <v>431.720154643623</v>
       </c>
       <c r="H172" t="n">
         <v>3100</v>
@@ -14365,7 +14365,7 @@
         <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>431.721918318331</v>
+        <v>431.720154643623</v>
       </c>
       <c r="H173" t="n">
         <v>3100</v>
@@ -14450,7 +14450,7 @@
         <v>100</v>
       </c>
       <c r="G174" t="n">
-        <v>431.721918318331</v>
+        <v>431.720154643623</v>
       </c>
       <c r="H174" t="n">
         <v>3100</v>
@@ -14532,16 +14532,16 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.00358</v>
+        <v>0.00362</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0071578086939363</v>
+        <v>0.0071914263130023</v>
       </c>
       <c r="H175" t="n">
         <v>0.045</v>
       </c>
       <c r="I175" t="n">
-        <v>0.03134</v>
+        <v>0.03138</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -14552,7 +14552,7 @@
         <v>0.00987</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02336</v>
+        <v>0.0234</v>
       </c>
       <c r="O175" t="n">
         <v>1785162</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.00358</v>
+        <v>0.00362</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0071578086939363</v>
+        <v>0.0071914263130023</v>
       </c>
       <c r="H176" t="n">
         <v>0.045</v>
       </c>
       <c r="I176" t="n">
-        <v>0.03134</v>
+        <v>0.03138</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -14633,7 +14633,7 @@
         <v>0.00987</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02336</v>
+        <v>0.0234</v>
       </c>
       <c r="O176" t="n">
         <v>1785162</v>
@@ -14697,7 +14697,7 @@
         <v>0.14</v>
       </c>
       <c r="G177" t="n">
-        <v>0.221087142013597</v>
+        <v>0.221160128361132</v>
       </c>
       <c r="H177" t="n">
         <v>0.597</v>
@@ -14778,7 +14778,7 @@
         <v>0.14</v>
       </c>
       <c r="G178" t="n">
-        <v>0.221087142013597</v>
+        <v>0.221160128361132</v>
       </c>
       <c r="H178" t="n">
         <v>0.597</v>
@@ -14855,10 +14855,10 @@
         <v>0.185</v>
       </c>
       <c r="G179" t="n">
-        <v>0.233947562412648</v>
+        <v>0.233942753381436</v>
       </c>
       <c r="H179" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I179" t="n">
         <v>0.555</v>
@@ -14932,10 +14932,10 @@
         <v>0.185</v>
       </c>
       <c r="G180" t="n">
-        <v>0.233947562412648</v>
+        <v>0.233942753381436</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I180" t="n">
         <v>0.555</v>
@@ -15564,7 +15564,7 @@
         <v>110</v>
       </c>
       <c r="G188" t="n">
-        <v>406.999131796972</v>
+        <v>406.994704406758</v>
       </c>
       <c r="H188" t="n">
         <v>3100</v>
@@ -15649,7 +15649,7 @@
         <v>110</v>
       </c>
       <c r="G189" t="n">
-        <v>406.999131796972</v>
+        <v>406.994704406758</v>
       </c>
       <c r="H189" t="n">
         <v>3100</v>
@@ -15734,7 +15734,7 @@
         <v>110</v>
       </c>
       <c r="G190" t="n">
-        <v>406.999131796972</v>
+        <v>406.994704406758</v>
       </c>
       <c r="H190" t="n">
         <v>3100</v>
@@ -15819,7 +15819,7 @@
         <v>110</v>
       </c>
       <c r="G191" t="n">
-        <v>406.999131796972</v>
+        <v>406.994704406758</v>
       </c>
       <c r="H191" t="n">
         <v>3100</v>
@@ -15904,13 +15904,13 @@
         <v>0.00406</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0077141855478764</v>
+        <v>0.0077395611303273</v>
       </c>
       <c r="H192" t="n">
         <v>0.045</v>
       </c>
       <c r="I192" t="n">
-        <v>0.03092</v>
+        <v>0.03097</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -15921,7 +15921,7 @@
         <v>0.01168</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02324</v>
+        <v>0.02326</v>
       </c>
       <c r="O192" t="n">
         <v>1785162</v>
@@ -15985,13 +15985,13 @@
         <v>0.00406</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0077141855478764</v>
+        <v>0.0077395611303273</v>
       </c>
       <c r="H193" t="n">
         <v>0.045</v>
       </c>
       <c r="I193" t="n">
-        <v>0.03092</v>
+        <v>0.03097</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -16002,7 +16002,7 @@
         <v>0.01168</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02324</v>
+        <v>0.02326</v>
       </c>
       <c r="O193" t="n">
         <v>1785162</v>
@@ -16066,7 +16066,7 @@
         <v>0.178</v>
       </c>
       <c r="G194" t="n">
-        <v>0.216433254510669</v>
+        <v>0.216510044805311</v>
       </c>
       <c r="H194" t="n">
         <v>0.597</v>
@@ -16147,7 +16147,7 @@
         <v>0.178</v>
       </c>
       <c r="G195" t="n">
-        <v>0.216433254510669</v>
+        <v>0.216510044805311</v>
       </c>
       <c r="H195" t="n">
         <v>0.597</v>
@@ -16224,10 +16224,10 @@
         <v>0.19</v>
       </c>
       <c r="G196" t="n">
-        <v>0.229467988208012</v>
+        <v>0.229469512915818</v>
       </c>
       <c r="H196" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I196" t="n">
         <v>0.55045</v>
@@ -16301,10 +16301,10 @@
         <v>0.19</v>
       </c>
       <c r="G197" t="n">
-        <v>0.229467988208012</v>
+        <v>0.229469512915818</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="I197" t="n">
         <v>0.55045</v>
@@ -16933,7 +16933,7 @@
         <v>110</v>
       </c>
       <c r="G205" t="n">
-        <v>432.216445712087</v>
+        <v>432.208561389651</v>
       </c>
       <c r="H205" t="n">
         <v>3100</v>
@@ -17018,7 +17018,7 @@
         <v>110</v>
       </c>
       <c r="G206" t="n">
-        <v>432.216445712087</v>
+        <v>432.208561389651</v>
       </c>
       <c r="H206" t="n">
         <v>3100</v>
@@ -17103,7 +17103,7 @@
         <v>110</v>
       </c>
       <c r="G207" t="n">
-        <v>432.216445712087</v>
+        <v>432.208561389651</v>
       </c>
       <c r="H207" t="n">
         <v>3100</v>
@@ -17188,7 +17188,7 @@
         <v>110</v>
       </c>
       <c r="G208" t="n">
-        <v>432.216445712087</v>
+        <v>432.208561389651</v>
       </c>
       <c r="H208" t="n">
         <v>3100</v>
@@ -17273,13 +17273,13 @@
         <v>0.005</v>
       </c>
       <c r="G209" t="n">
-        <v>0.008033446492364701</v>
+        <v>0.0080526499747492</v>
       </c>
       <c r="H209" t="n">
         <v>0.045</v>
       </c>
       <c r="I209" t="n">
-        <v>0.03092</v>
+        <v>0.03097</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -17290,7 +17290,7 @@
         <v>0.0114</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02324</v>
+        <v>0.02326</v>
       </c>
       <c r="O209" t="n">
         <v>1785162</v>
@@ -17354,13 +17354,13 @@
         <v>0.005</v>
       </c>
       <c r="G210" t="n">
-        <v>0.008033446492364701</v>
+        <v>0.0080526499747492</v>
       </c>
       <c r="H210" t="n">
         <v>0.045</v>
       </c>
       <c r="I210" t="n">
-        <v>0.03092</v>
+        <v>0.03097</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -17371,7 +17371,7 @@
         <v>0.0114</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02324</v>
+        <v>0.02326</v>
       </c>
       <c r="O210" t="n">
         <v>1785162</v>
@@ -17435,7 +17435,7 @@
         <v>0.188</v>
       </c>
       <c r="G211" t="n">
-        <v>0.220419263879721</v>
+        <v>0.22051623523531</v>
       </c>
       <c r="H211" t="n">
         <v>0.6919999999999999</v>
@@ -17446,7 +17446,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.01244</v>
+        <v>0.01302</v>
       </c>
       <c r="M211" t="n">
         <v>0.441</v>
@@ -17516,7 +17516,7 @@
         <v>0.188</v>
       </c>
       <c r="G212" t="n">
-        <v>0.220419263879721</v>
+        <v>0.22051623523531</v>
       </c>
       <c r="H212" t="n">
         <v>0.6919999999999999</v>
@@ -17527,7 +17527,7 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>0.01244</v>
+        <v>0.01302</v>
       </c>
       <c r="M212" t="n">
         <v>0.441</v>
@@ -17593,7 +17593,7 @@
         <v>0.198</v>
       </c>
       <c r="G213" t="n">
-        <v>0.231415356629065</v>
+        <v>0.231416881336871</v>
       </c>
       <c r="H213" t="n">
         <v>0.701</v>
@@ -17670,7 +17670,7 @@
         <v>0.198</v>
       </c>
       <c r="G214" t="n">
-        <v>0.231415356629065</v>
+        <v>0.231416881336871</v>
       </c>
       <c r="H214" t="n">
         <v>0.701</v>
@@ -18029,6 +18029,1375 @@
         </is>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.0102105263157895</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.01581</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.0102105263157895</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.01581</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>90</v>
+      </c>
+      <c r="G222" t="n">
+        <v>457.944547096905</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6212</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="J222" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K222" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L222" t="n">
+        <v>69</v>
+      </c>
+      <c r="M222" t="n">
+        <v>843.65</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1297.12</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>90</v>
+      </c>
+      <c r="G223" t="n">
+        <v>457.944547096905</v>
+      </c>
+      <c r="H223" t="n">
+        <v>6212</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="J223" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K223" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L223" t="n">
+        <v>69</v>
+      </c>
+      <c r="M223" t="n">
+        <v>843.65</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1297.12</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>90</v>
+      </c>
+      <c r="G224" t="n">
+        <v>457.944547096905</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6212</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="J224" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K224" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L224" t="n">
+        <v>69</v>
+      </c>
+      <c r="M224" t="n">
+        <v>843.65</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1297.12</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>90</v>
+      </c>
+      <c r="G225" t="n">
+        <v>457.944547096905</v>
+      </c>
+      <c r="H225" t="n">
+        <v>6212</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1948.5</v>
+      </c>
+      <c r="J225" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="K225" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="L225" t="n">
+        <v>69</v>
+      </c>
+      <c r="M225" t="n">
+        <v>843.65</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1297.12</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.0092628888762316</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.03299</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.00593</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.01684</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.02445</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.0092628888762316</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.03299</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.00593</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.01684</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.02445</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.224063961061704</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.50395</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.01302</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.43891</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.49404</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.224063961061704</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.50395</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.01302</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.43891</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.49404</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.237820390108801</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.57125</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.45196</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.50682</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.237820390108801</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.57125</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.45196</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.50682</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.439824561403509</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1.0115</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.6848</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.8076</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.439824561403509</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1.0115</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.6848</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.8076</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.0647543859649123</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.27585</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.23662</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Whanganui at Te Rewa</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.0647543859649123</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.27585</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.23662</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1785162</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5595602</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Paetawa</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whai_6</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
+++ b/state_results/Rivers/WhanganuiatTeRewa_d5fd23659d.xlsx
@@ -813,10 +813,10 @@
         <v>131</v>
       </c>
       <c r="G5" t="n">
-        <v>662.763931940274</v>
+        <v>626.7366008945839</v>
       </c>
       <c r="H5" t="n">
-        <v>7228.25232477481</v>
+        <v>6100</v>
       </c>
       <c r="I5" t="n">
         <v>3443.2</v>
@@ -898,10 +898,10 @@
         <v>131</v>
       </c>
       <c r="G6" t="n">
-        <v>662.763931940274</v>
+        <v>626.7366008945839</v>
       </c>
       <c r="H6" t="n">
-        <v>7228.25232477481</v>
+        <v>6100</v>
       </c>
       <c r="I6" t="n">
         <v>3443.2</v>
@@ -983,10 +983,10 @@
         <v>131</v>
       </c>
       <c r="G7" t="n">
-        <v>662.763931940274</v>
+        <v>626.7366008945839</v>
       </c>
       <c r="H7" t="n">
-        <v>7228.25232477481</v>
+        <v>6100</v>
       </c>
       <c r="I7" t="n">
         <v>3443.2</v>
@@ -1068,10 +1068,10 @@
         <v>131</v>
       </c>
       <c r="G8" t="n">
-        <v>662.763931940274</v>
+        <v>626.7366008945839</v>
       </c>
       <c r="H8" t="n">
-        <v>7228.25232477481</v>
+        <v>6100</v>
       </c>
       <c r="I8" t="n">
         <v>3443.2</v>
@@ -1631,13 +1631,13 @@
         <v>0.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.911431824445774</v>
+        <v>0.915136469205403</v>
       </c>
       <c r="H15" t="n">
         <v>3.744</v>
       </c>
       <c r="I15" t="n">
-        <v>2.632</v>
+        <v>2.64934</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1648,7 +1648,7 @@
         <v>1.7</v>
       </c>
       <c r="N15" t="n">
-        <v>2.39105</v>
+        <v>2.50405</v>
       </c>
       <c r="O15" t="n">
         <v>1785162</v>
@@ -3000,13 +3000,13 @@
         <v>0.65</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9182638397113591</v>
+        <v>0.921646341448412</v>
       </c>
       <c r="H32" t="n">
         <v>3.744</v>
       </c>
       <c r="I32" t="n">
-        <v>2.566</v>
+        <v>2.58912</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
         <v>1.7</v>
       </c>
       <c r="N32" t="n">
-        <v>2.27371</v>
+        <v>2.3776</v>
       </c>
       <c r="O32" t="n">
         <v>1785162</v>
@@ -4369,13 +4369,13 @@
         <v>0.5</v>
       </c>
       <c r="G49" t="n">
-        <v>0.786898054422302</v>
+        <v>0.790280556159355</v>
       </c>
       <c r="H49" t="n">
         <v>3.744</v>
       </c>
       <c r="I49" t="n">
-        <v>2.39865</v>
+        <v>2.50578</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -5738,13 +5738,13 @@
         <v>0.5</v>
       </c>
       <c r="G66" t="n">
-        <v>0.774434908233182</v>
+        <v>0.77761031802715</v>
       </c>
       <c r="H66" t="n">
         <v>3.744</v>
       </c>
       <c r="I66" t="n">
-        <v>1.87617</v>
+        <v>1.88395</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -7107,10 +7107,10 @@
         <v>0.78</v>
       </c>
       <c r="G83" t="n">
-        <v>0.879309668466592</v>
+        <v>0.896144265221453</v>
       </c>
       <c r="H83" t="n">
-        <v>4.65579225683691</v>
+        <v>5.3755962081852</v>
       </c>
       <c r="I83" t="n">
         <v>1.845</v>
@@ -8476,10 +8476,10 @@
         <v>0.7</v>
       </c>
       <c r="G100" t="n">
-        <v>0.819623377585037</v>
+        <v>0.833737180552651</v>
       </c>
       <c r="H100" t="n">
-        <v>4.65579225683691</v>
+        <v>5.3755962081852</v>
       </c>
       <c r="I100" t="n">
         <v>1.8</v>
@@ -9845,10 +9845,10 @@
         <v>0.76</v>
       </c>
       <c r="G117" t="n">
-        <v>0.83960800524157</v>
+        <v>0.854297881799698</v>
       </c>
       <c r="H117" t="n">
-        <v>4.65579225683691</v>
+        <v>5.3755962081852</v>
       </c>
       <c r="I117" t="n">
         <v>1.8625</v>
@@ -11214,10 +11214,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>0.792915845136738</v>
+        <v>0.807311924163704</v>
       </c>
       <c r="H134" t="n">
-        <v>4.65579225683691</v>
+        <v>5.3755962081852</v>
       </c>
       <c r="I134" t="n">
         <v>1.85</v>
@@ -12583,10 +12583,10 @@
         <v>0.6</v>
       </c>
       <c r="G151" t="n">
-        <v>0.787051708459943</v>
+        <v>0.800381411262689</v>
       </c>
       <c r="H151" t="n">
-        <v>4.65579225683691</v>
+        <v>5.3755962081852</v>
       </c>
       <c r="I151" t="n">
         <v>1.96</v>
